--- a/src/test/java/zlst/data/测试用例.xlsx
+++ b/src/test/java/zlst/data/测试用例.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="54">
   <si>
     <t>测试用例序号</t>
   </si>
